--- a/SCF/files/批量导入客户_new.xlsx
+++ b/SCF/files/批量导入客户_new.xlsx
@@ -1090,32 +1090,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>aHDx52九方信息有限公司</t>
+          <t>ATvUDK群英科技有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9048765231</t>
+          <t>5102638497</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>赵荣</t>
+          <t>黄娟</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14744685193</t>
+          <t>15206996553</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>lifang@example.com</t>
+          <t>shina@example.org</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>经销商</t>
         </is>
       </c>
     </row>

--- a/SCF/files/批量导入客户_new.xlsx
+++ b/SCF/files/批量导入客户_new.xlsx
@@ -1090,32 +1090,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATvUDK群英科技有限公司</t>
+          <t>kaFLv9天开传媒有限公司</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5102638497</t>
+          <t>4237816509</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>黄娟</t>
+          <t>邓欣</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15206996553</t>
+          <t>13770900590</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>shina@example.org</t>
+          <t>haoxiuying@example.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>经销商</t>
+          <t>核心企业</t>
         </is>
       </c>
     </row>
